--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1362B2B9-1878-1145-9AFF-94CF8A05E1BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89A49A-BBA2-A141-818F-8EE86F99A92C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="15240" windowWidth="28800" windowHeight="16760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7500" windowWidth="38400" windowHeight="14100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1511,12 +1511,6 @@
       </rPr>
       <t>case-sensitive</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab 2:
-- basic assertions
-- basic numeric assertions
-</t>
   </si>
   <si>
     <t>${Text 1}</t>
@@ -2039,6 +2033,52 @@
 - create files
 - append files
 - segway to $(random) and $(date)</t>
+  </si>
+  <si>
+    <t>Lab 2:
+- basic assertions
+- basic numeric assertions
+create random number in data sheet range less than 100 - named it as num1
+create a numeric assertion that num1 is less than 80</t>
+  </si>
+  <si>
+    <t>jeffbezos</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/start-01-jeffbezoscommencement.txt</t>
+  </si>
+  <si>
+    <t>${jeffbezos}</t>
+  </si>
+  <si>
+    <t>I\ +</t>
+  </si>
+  <si>
+    <t>jeffbezos' I</t>
+  </si>
+  <si>
+    <t>stevejob</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/start-01-steve_job_commencement.txt</t>
+  </si>
+  <si>
+    <t>${stevejob}</t>
+  </si>
+  <si>
+    <t>stevejob's I</t>
+  </si>
+  <si>
+    <t>${jeffbezos' I}</t>
+  </si>
+  <si>
+    <t>${stevejob's I}</t>
+  </si>
+  <si>
+    <t>Jeff uses less 'I' than Steve</t>
+  </si>
+  <si>
+    <t>How many I?</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2938,7 @@
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
@@ -3052,7 +3092,7 @@
         <v>370</v>
       </c>
       <c r="F4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H4" t="s">
         <v>334</v>
@@ -3123,7 +3163,7 @@
         <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H5" t="s">
         <v>331</v>
@@ -3350,7 +3390,7 @@
         <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I9" t="s">
         <v>373</v>
@@ -3702,7 +3742,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E23" t="s">
         <v>273</v>
@@ -4126,7 +4166,7 @@
         <v>287</v>
       </c>
       <c r="U70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.2">
@@ -4190,7 +4230,7 @@
         <v>315</v>
       </c>
       <c r="U78" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="5:21" x14ac:dyDescent="0.2">
@@ -4434,9 +4474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1007"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4870,7 +4910,7 @@
     <row r="17" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>7</v>
@@ -4879,7 +4919,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -4895,7 +4935,7 @@
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>7</v>
@@ -4904,10 +4944,10 @@
         <v>298</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4922,7 +4962,7 @@
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>7</v>
@@ -4931,10 +4971,10 @@
         <v>298</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4949,7 +4989,7 @@
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>7</v>
@@ -4958,10 +4998,10 @@
         <v>298</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4983,10 +5023,10 @@
         <v>298</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -5008,7 +5048,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -5040,10 +5080,10 @@
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>7</v>
@@ -5052,7 +5092,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -5068,7 +5108,7 @@
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>7</v>
@@ -5077,7 +5117,7 @@
         <v>61</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -5093,7 +5133,7 @@
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>7</v>
@@ -5102,7 +5142,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -5118,7 +5158,7 @@
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>7</v>
@@ -5127,7 +5167,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -5143,7 +5183,7 @@
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>7</v>
@@ -5152,7 +5192,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -5168,7 +5208,7 @@
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>7</v>
@@ -5177,7 +5217,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -5193,7 +5233,7 @@
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>7</v>
@@ -5202,7 +5242,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -5218,7 +5258,7 @@
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>7</v>
@@ -5227,7 +5267,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -5259,10 +5299,10 @@
     </row>
     <row r="33" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>7</v>
@@ -5271,10 +5311,10 @@
         <v>54</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -5289,7 +5329,7 @@
     <row r="34" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>7</v>
@@ -5301,7 +5341,7 @@
         <v>454</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -5316,7 +5356,7 @@
     <row r="35" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>7</v>
@@ -5328,7 +5368,7 @@
         <v>454</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -5366,7 +5406,7 @@
     <row r="37" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>7</v>
@@ -5378,7 +5418,7 @@
         <v>454</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -5416,7 +5456,7 @@
     <row r="39" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>7</v>
@@ -5428,7 +5468,7 @@
         <v>439</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>454</v>
@@ -5452,7 +5492,7 @@
         <v>61</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -16309,11 +16349,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8128F6-CB15-114A-B5C1-A7C20210775C}">
-  <dimension ref="A1:O993"/>
+  <dimension ref="A1:O992"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16367,7 +16407,7 @@
     </row>
     <row r="2" spans="1:15" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>472</v>
+        <v>558</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -16452,10 +16492,10 @@
     </row>
     <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
@@ -16464,10 +16504,10 @@
         <v>298</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -16482,7 +16522,7 @@
     <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>7</v>
@@ -16491,10 +16531,10 @@
         <v>324</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -16509,7 +16549,7 @@
     <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>7</v>
@@ -16518,10 +16558,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -16543,10 +16583,10 @@
         <v>238</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -16561,7 +16601,7 @@
     <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>7</v>
@@ -16570,10 +16610,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -16588,7 +16628,7 @@
     <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>7</v>
@@ -16597,10 +16637,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -16615,7 +16655,7 @@
     <row r="11" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>7</v>
@@ -16624,10 +16664,10 @@
         <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -16649,7 +16689,7 @@
         <v>302</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -16665,7 +16705,7 @@
     <row r="13" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>7</v>
@@ -16674,7 +16714,7 @@
         <v>398</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="6"/>
@@ -16690,7 +16730,7 @@
     <row r="14" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>7</v>
@@ -16699,7 +16739,7 @@
         <v>301</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -16715,7 +16755,7 @@
     <row r="15" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>7</v>
@@ -16724,7 +16764,7 @@
         <v>368</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -16738,12 +16778,22 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -16755,10 +16805,8 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="26"/>
+      <c r="B17"/>
       <c r="C17" s="12" t="s">
         <v>7</v>
       </c>
@@ -16766,10 +16814,10 @@
         <v>54</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -16783,18 +16831,20 @@
     </row>
     <row r="18" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
-      <c r="B18"/>
+      <c r="B18" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="C18" s="12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -16812,16 +16862,16 @@
         <v>555</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>414</v>
+        <v>298</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -16835,17 +16885,15 @@
     </row>
     <row r="20" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
-      <c r="B20" s="4" t="s">
-        <v>556</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>527</v>
@@ -16862,19 +16910,17 @@
     </row>
     <row r="21" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>421</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>528</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -16887,18 +16933,24 @@
     </row>
     <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="C22" s="12" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>61</v>
+        <v>413</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+        <v>526</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="21"/>
@@ -16910,24 +16962,12 @@
     </row>
     <row r="23" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
-      <c r="B23" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>529</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="21"/>
@@ -16940,18 +16980,10 @@
     <row r="24" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>527</v>
-      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -16968,7 +17000,6 @@
       <c r="C25" s="12"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -17016,7 +17047,6 @@
     <row r="28" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -17387,7 +17417,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
@@ -27434,38 +27464,22 @@
       <c r="N640" s="14"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="26"/>
-      <c r="B641" s="4"/>
-      <c r="C641" s="12"/>
-      <c r="D641" s="6"/>
-      <c r="E641" s="6"/>
-      <c r="F641" s="6"/>
-      <c r="G641" s="6"/>
-      <c r="H641" s="6"/>
-      <c r="I641" s="6"/>
-      <c r="J641" s="21"/>
-      <c r="K641" s="2"/>
-      <c r="L641" s="14"/>
-      <c r="M641" s="11"/>
-      <c r="N641" s="14"/>
-      <c r="O641" s="2"/>
-    </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27802,7 +27816,6 @@
     <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -27822,11 +27835,11 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C693" xr:uid="{80F7CA88-4B17-944A-9C1B-4A651A9ECB29}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C692 C5:C27" xr:uid="{80F7CA88-4B17-944A-9C1B-4A651A9ECB29}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D691" xr:uid="{EEB76C79-4678-F949-B7CF-35194E2C3998}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D690" xr:uid="{EEB76C79-4678-F949-B7CF-35194E2C3998}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -27839,9 +27852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E436FE-7D89-8544-8E5A-34256A212F50}">
   <dimension ref="A1:O993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27850,7 +27863,7 @@
     <col min="2" max="2" width="58.83203125" style="8" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="13" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="46.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.83203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.33203125" style="9" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="15.5" style="9" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="22" customWidth="1" collapsed="1"/>
@@ -27893,9 +27906,9 @@
       <c r="N1" s="39"/>
       <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -27979,12 +27992,22 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="26" t="s">
+        <v>571</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>560</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -27998,9 +28021,15 @@
     <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>561</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -28015,11 +28044,21 @@
     <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>563</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="21"/>
@@ -28032,10 +28071,18 @@
     <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -28049,9 +28096,15 @@
     <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>566</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -28066,11 +28119,21 @@
     <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>567</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="21"/>
@@ -28082,11 +28145,21 @@
     </row>
     <row r="11" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>569</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -28238,7 +28311,6 @@
       <c r="B20" s="4"/>
       <c r="C20" s="12"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -39251,7 +39323,7 @@
     </row>
     <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25EDC3-A2F8-9C46-822C-DB3B930A5006}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF2233-327D-824E-B803-D5B896495552}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7500" windowWidth="38400" windowHeight="16900" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,11 +1564,6 @@
     <t>substring command</t>
   </si>
   <si>
-    <t>Lab 3:
-- more base commands
-- number commands</t>
-  </si>
-  <si>
     <t>brown fox</t>
   </si>
   <si>
@@ -2194,6 +2189,11 @@
   </si>
   <si>
     <t>$(syspath|out|fullpath)/subdir2a/${random name}.txt</t>
+  </si>
+  <si>
+    <t>Lab 4:
+- more base commands
+- number commands</t>
   </si>
 </sst>
 </file>
@@ -2525,6 +2525,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2552,9 +2555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3076,7 +3076,7 @@
         <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
@@ -3230,7 +3230,7 @@
         <v>370</v>
       </c>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H4" t="s">
         <v>334</v>
@@ -3301,7 +3301,7 @@
         <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H5" t="s">
         <v>331</v>
@@ -3363,7 +3363,7 @@
         <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -3569,7 +3569,7 @@
         <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -3709,7 +3709,7 @@
         <v>308</v>
       </c>
       <c r="I14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -3883,7 +3883,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
         <v>273</v>
@@ -4310,7 +4310,7 @@
         <v>287</v>
       </c>
       <c r="U70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.2">
@@ -4374,7 +4374,7 @@
         <v>315</v>
       </c>
       <c r="U78" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="5:21" x14ac:dyDescent="0.2">
@@ -4642,12 +4642,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
@@ -4665,20 +4665,20 @@
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="24" t="s">
         <v>427</v>
       </c>
@@ -4690,10 +4690,10 @@
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -5054,7 +5054,7 @@
     <row r="17" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>7</v>
@@ -5063,7 +5063,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -5079,7 +5079,7 @@
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>7</v>
@@ -5088,10 +5088,10 @@
         <v>298</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -5106,7 +5106,7 @@
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>7</v>
@@ -5115,10 +5115,10 @@
         <v>298</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -5133,7 +5133,7 @@
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>7</v>
@@ -5142,10 +5142,10 @@
         <v>298</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -5167,10 +5167,10 @@
         <v>298</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -5192,7 +5192,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>7</v>
@@ -5236,7 +5236,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -5252,7 +5252,7 @@
     <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>7</v>
@@ -5261,7 +5261,7 @@
         <v>61</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -5277,7 +5277,7 @@
     <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>7</v>
@@ -5286,7 +5286,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -5302,7 +5302,7 @@
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>7</v>
@@ -5311,7 +5311,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -5327,7 +5327,7 @@
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>7</v>
@@ -5336,7 +5336,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -5352,7 +5352,7 @@
     <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>7</v>
@@ -5361,7 +5361,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -5377,7 +5377,7 @@
     <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>7</v>
@@ -5386,7 +5386,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -5402,7 +5402,7 @@
     <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>7</v>
@@ -5411,7 +5411,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -16519,12 +16519,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="28" t="s">
         <v>6</v>
       </c>
@@ -16542,20 +16542,20 @@
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>558</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="24" t="s">
         <v>427</v>
       </c>
@@ -16567,10 +16567,10 @@
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -16636,10 +16636,10 @@
     </row>
     <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
@@ -16693,7 +16693,7 @@
     <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>7</v>
@@ -16705,7 +16705,7 @@
         <v>472</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -16730,7 +16730,7 @@
         <v>472</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -16745,7 +16745,7 @@
     <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>7</v>
@@ -16757,7 +16757,7 @@
         <v>472</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -16772,7 +16772,7 @@
     <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>7</v>
@@ -16784,7 +16784,7 @@
         <v>472</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -16799,7 +16799,7 @@
     <row r="11" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>7</v>
@@ -16808,10 +16808,10 @@
         <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -16833,7 +16833,7 @@
         <v>302</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -16849,7 +16849,7 @@
     <row r="13" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>7</v>
@@ -16858,7 +16858,7 @@
         <v>398</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="6"/>
@@ -16874,7 +16874,7 @@
     <row r="14" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>7</v>
@@ -16899,7 +16899,7 @@
     <row r="15" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>7</v>
@@ -16908,7 +16908,7 @@
         <v>368</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -16923,7 +16923,7 @@
     </row>
     <row r="16" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="12" t="s">
@@ -16933,10 +16933,10 @@
         <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -16958,10 +16958,10 @@
         <v>54</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -16976,7 +16976,7 @@
     <row r="18" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>43</v>
@@ -16985,10 +16985,10 @@
         <v>414</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -17003,7 +17003,7 @@
     <row r="19" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>7</v>
@@ -17012,10 +17012,10 @@
         <v>298</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -17037,10 +17037,10 @@
         <v>421</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -17062,7 +17062,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -17078,7 +17078,7 @@
     <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>43</v>
@@ -17087,13 +17087,13 @@
         <v>413</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -28020,12 +28020,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="28" t="s">
         <v>6</v>
       </c>
@@ -28043,20 +28043,20 @@
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="24" t="s">
         <v>427</v>
       </c>
@@ -28068,10 +28068,10 @@
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -28137,7 +28137,7 @@
     </row>
     <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
@@ -28147,10 +28147,10 @@
         <v>72</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -28169,16 +28169,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -28199,10 +28199,10 @@
         <v>72</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -28221,16 +28221,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -28244,7 +28244,7 @@
     <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>43</v>
@@ -28253,10 +28253,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>569</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -28270,7 +28270,7 @@
     </row>
     <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="12" t="s">
@@ -28280,10 +28280,10 @@
         <v>72</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -28302,16 +28302,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -28332,10 +28332,10 @@
         <v>72</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -28354,16 +28354,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -28377,7 +28377,7 @@
     <row r="14" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>43</v>
@@ -28386,10 +28386,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -39415,7 +39415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39437,12 +39437,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="32" t="s">
         <v>6</v>
       </c>
@@ -39460,20 +39460,20 @@
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="24" t="s">
         <v>427</v>
       </c>
@@ -39485,10 +39485,10 @@
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -39554,10 +39554,10 @@
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
@@ -39566,10 +39566,10 @@
         <v>304</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -39584,7 +39584,7 @@
     <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
       <c r="B6" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>43</v>
@@ -39593,10 +39593,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -39611,7 +39611,7 @@
     <row r="7" spans="1:15" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -39620,13 +39620,13 @@
         <v>76</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -39640,7 +39640,7 @@
     <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>7</v>
@@ -39649,7 +39649,7 @@
         <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -39672,10 +39672,10 @@
         <v>421</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -39689,10 +39689,10 @@
     </row>
     <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>8</v>
@@ -39701,7 +39701,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -39717,7 +39717,7 @@
     <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -39726,10 +39726,10 @@
         <v>35</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -39743,7 +39743,7 @@
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="12" t="s">
@@ -39753,10 +39753,10 @@
         <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -39775,13 +39775,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -39796,7 +39796,7 @@
     <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>8</v>
@@ -39805,10 +39805,10 @@
         <v>221</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -39822,20 +39822,20 @@
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>598</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -39857,10 +39857,10 @@
         <v>221</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="613">
   <si>
     <t>description</t>
   </si>
@@ -2201,13 +2201,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2515,8 +2518,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2847,8 +2944,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3450,6 +3700,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3457,7 +3989,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3666,49 +4198,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="34" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="37" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="40" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="46" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="49" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="49" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="52" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="52" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="52" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="61" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="64" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="67" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="73" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="76" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="79" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="79" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4123,7 +4700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5335,7 +5912,7 @@
         <v>251</v>
       </c>
       <c r="U53" t="s">
-        <v>117</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54">
@@ -5343,7 +5920,7 @@
         <v>275</v>
       </c>
       <c r="U54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
@@ -5351,7 +5928,7 @@
         <v>276</v>
       </c>
       <c r="U55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
@@ -5359,7 +5936,7 @@
         <v>277</v>
       </c>
       <c r="U56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -5367,7 +5944,7 @@
         <v>286</v>
       </c>
       <c r="U57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -5375,7 +5952,7 @@
         <v>295</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -5383,7 +5960,7 @@
         <v>320</v>
       </c>
       <c r="U59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
@@ -5391,7 +5968,7 @@
         <v>292</v>
       </c>
       <c r="U60" t="s">
-        <v>430</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -5399,7 +5976,7 @@
         <v>293</v>
       </c>
       <c r="U61" t="s">
-        <v>199</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62">
@@ -5407,7 +5984,7 @@
         <v>352</v>
       </c>
       <c r="U62" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63">
@@ -5415,7 +5992,7 @@
         <v>353</v>
       </c>
       <c r="U63" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64">
@@ -5423,7 +6000,7 @@
         <v>328</v>
       </c>
       <c r="U64" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65">
@@ -5431,7 +6008,7 @@
         <v>296</v>
       </c>
       <c r="U65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -5439,7 +6016,7 @@
         <v>252</v>
       </c>
       <c r="U66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
@@ -5447,7 +6024,7 @@
         <v>336</v>
       </c>
       <c r="U67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
@@ -5455,7 +6032,7 @@
         <v>297</v>
       </c>
       <c r="U68" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
@@ -5463,7 +6040,7 @@
         <v>393</v>
       </c>
       <c r="U69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
@@ -5471,7 +6048,7 @@
         <v>287</v>
       </c>
       <c r="U70" t="s">
-        <v>531</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71">
@@ -5479,7 +6056,7 @@
         <v>394</v>
       </c>
       <c r="U71" t="s">
-        <v>128</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72">
@@ -5487,7 +6064,7 @@
         <v>245</v>
       </c>
       <c r="U72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
@@ -5495,7 +6072,7 @@
         <v>327</v>
       </c>
       <c r="U73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
@@ -5503,7 +6080,7 @@
         <v>263</v>
       </c>
       <c r="U74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -5511,7 +6088,7 @@
         <v>269</v>
       </c>
       <c r="U75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
@@ -5519,7 +6096,7 @@
         <v>274</v>
       </c>
       <c r="U76" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
@@ -5527,7 +6104,7 @@
         <v>412</v>
       </c>
       <c r="U77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
@@ -5535,7 +6112,7 @@
         <v>315</v>
       </c>
       <c r="U78" t="s">
-        <v>501</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
@@ -5543,7 +6120,7 @@
         <v>253</v>
       </c>
       <c r="U79" t="s">
-        <v>186</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80">
@@ -5551,7 +6128,7 @@
         <v>264</v>
       </c>
       <c r="U80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
@@ -5559,7 +6136,7 @@
         <v>270</v>
       </c>
       <c r="U81" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82">
@@ -5567,7 +6144,7 @@
         <v>259</v>
       </c>
       <c r="U82" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -5575,7 +6152,7 @@
         <v>254</v>
       </c>
       <c r="U83" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
@@ -5583,7 +6160,7 @@
         <v>271</v>
       </c>
       <c r="U84" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
@@ -5591,7 +6168,7 @@
         <v>255</v>
       </c>
       <c r="U85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86">
@@ -5599,7 +6176,7 @@
         <v>256</v>
       </c>
       <c r="U86" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87">
@@ -5607,7 +6184,7 @@
         <v>288</v>
       </c>
       <c r="U87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -5615,7 +6192,7 @@
         <v>294</v>
       </c>
       <c r="U88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89">
@@ -5623,7 +6200,7 @@
         <v>278</v>
       </c>
       <c r="U89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90">
@@ -5631,7 +6208,7 @@
         <v>323</v>
       </c>
       <c r="U90" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91">
@@ -5639,7 +6216,7 @@
         <v>260</v>
       </c>
       <c r="U91" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -5647,126 +6224,131 @@
         <v>261</v>
       </c>
       <c r="U92" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -21,36 +21,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="619">
   <si>
     <t>description</t>
   </si>
@@ -2204,13 +2205,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2612,8 +2631,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3097,8 +3217,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3982,6 +4255,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3989,7 +4544,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4243,49 +4798,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="61" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="61" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="64" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="64" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="67" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="67" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="73" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="73" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="76" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="76" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="79" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="79" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="79" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="79" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="88" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="91" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="94" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="97" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="103" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="106" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="109" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="109" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4700,7 +5303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4719,75 +5322,78 @@
         <v>354</v>
       </c>
       <c r="C1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>222</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>340</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>380</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>397</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4799,1556 +5405,1576 @@
         <v>355</v>
       </c>
       <c r="C2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>497</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>332</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>298</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>367</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>416</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>400</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>413</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>236</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>202</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>381</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>402</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>403</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>364</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>390</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>156</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>161</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>168</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>415</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>613</v>
       </c>
       <c r="B3" t="s">
         <v>356</v>
       </c>
       <c r="C3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" t="s">
         <v>610</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>348</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>333</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>324</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>317</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>414</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>223</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>203</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>382</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>404</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>365</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>391</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>157</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>162</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>347</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>357</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>370</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>498</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>334</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>221</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>318</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>224</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>204</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>383</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>405</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>341</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>392</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>337</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>158</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>163</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>169</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>407</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>611</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>433</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>319</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>595</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>331</v>
       </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>616</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>225</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>205</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>384</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>406</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>342</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>338</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>159</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>164</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>170</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>408</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>371</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>499</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>226</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>374</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>385</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>344</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>84</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>437</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>165</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>171</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>409</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>207</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>349</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>466</v>
       </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
         <v>298</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>227</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>401</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>386</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>343</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>85</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>438</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>166</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>172</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>410</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>301</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>350</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>311</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>417</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>228</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>387</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>345</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>86</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>160</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>167</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>173</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>411</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>289</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>312</v>
       </c>
-      <c r="I9" t="s">
-        <v>373</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>418</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>229</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>388</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>346</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>194</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>174</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>298</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>335</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>500</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>419</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>230</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>389</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>240</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>175</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
         <v>238</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>305</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
         <v>435</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>420</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>231</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>241</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>242</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>302</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>246</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>306</v>
       </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>421</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>232</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>87</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
         <v>324</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>299</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>307</v>
       </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>422</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>237</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>309</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>247</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>308</v>
       </c>
-      <c r="I14" t="s">
-        <v>596</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>423</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>233</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>88</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>248</v>
       </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>596</v>
+      </c>
+      <c r="N15" t="s">
         <v>424</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>234</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>89</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>368</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>300</v>
       </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" t="s">
         <v>235</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>66</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
         <v>369</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
-        <v>363</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>90</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" t="s">
         <v>398</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>81</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>363</v>
+      </c>
+      <c r="V18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>279</v>
       </c>
-      <c r="I19" t="s">
-        <v>375</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>280</v>
       </c>
-      <c r="I20" t="s">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>375</v>
+      </c>
+      <c r="V20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
         <v>239</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>281</v>
       </c>
-      <c r="I21" t="s">
-        <v>434</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>282</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>434</v>
+      </c>
+      <c r="V22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>304</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>273</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>262</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>496</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="C26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" t="s">
-        <v>265</v>
-      </c>
-      <c r="U26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>209</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>249</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>399</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>266</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>267</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>258</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>268</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>59</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>243</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>313</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>244</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>291</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>250</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>197</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>283</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>326</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>325</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>322</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>351</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>285</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>339</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>314</v>
+      </c>
+      <c r="V52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>314</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>251</v>
+      </c>
+      <c r="V53" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>251</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>275</v>
+      </c>
+      <c r="V54" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>275</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>276</v>
+      </c>
+      <c r="V55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>276</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="V56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>277</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>286</v>
+      </c>
+      <c r="V57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>286</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>295</v>
+      </c>
+      <c r="V58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>295</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>320</v>
+      </c>
+      <c r="V59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>320</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>292</v>
+      </c>
+      <c r="V60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>292</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>293</v>
+      </c>
+      <c r="V61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>293</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+      <c r="V62" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>352</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>353</v>
+      </c>
+      <c r="V63" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>353</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>328</v>
+      </c>
+      <c r="V64" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>328</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>296</v>
+      </c>
+      <c r="V65" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>296</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>252</v>
+      </c>
+      <c r="V66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>336</v>
+      </c>
+      <c r="V67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>336</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>297</v>
+      </c>
+      <c r="V68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>297</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>393</v>
+      </c>
+      <c r="V69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>393</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>287</v>
+      </c>
+      <c r="V70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>287</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>394</v>
+      </c>
+      <c r="V71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>394</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>245</v>
+      </c>
+      <c r="V72" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>245</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>327</v>
+      </c>
+      <c r="V73" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>327</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>263</v>
+      </c>
+      <c r="V74" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>263</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+      <c r="V75" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>269</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>274</v>
+      </c>
+      <c r="V76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>274</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>412</v>
+      </c>
+      <c r="V77" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>412</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>315</v>
+      </c>
+      <c r="V78" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>315</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>253</v>
+      </c>
+      <c r="V79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>253</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>264</v>
+      </c>
+      <c r="V80" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>264</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>270</v>
+      </c>
+      <c r="V81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>270</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+      <c r="V82" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>259</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>254</v>
+      </c>
+      <c r="V83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>254</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>271</v>
+      </c>
+      <c r="V84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>271</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>255</v>
+      </c>
+      <c r="V85" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>255</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>256</v>
+      </c>
+      <c r="V86" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>256</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>288</v>
+      </c>
+      <c r="V87" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>288</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>294</v>
+      </c>
+      <c r="V88" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>294</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>278</v>
+      </c>
+      <c r="V89" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>278</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>323</v>
+      </c>
+      <c r="V90" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>323</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>260</v>
+      </c>
+      <c r="V91" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>260</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>261</v>
+      </c>
+      <c r="V92" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>261</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="620">
   <si>
     <t>description</t>
   </si>
@@ -2223,13 +2223,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="94" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2732,8 +2735,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3370,8 +3474,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -4537,6 +4794,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4544,7 +5083,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4843,52 +5382,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="88" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="88" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="91" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="91" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="94" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="94" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="97" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="97" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="68" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="103" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="103" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="106" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="106" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="109" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="109" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="109" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="109" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="115" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="118" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="121" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="124" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="130" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="133" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="136" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="136" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5423,7 +6010,7 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>332</v>
+        <v>619</v>
       </c>
       <c r="J2" t="s">
         <v>298</v>
@@ -5506,7 +6093,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
         <v>324</v>
@@ -5577,7 +6164,7 @@
         <v>498</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
         <v>221</v>
@@ -5648,7 +6235,7 @@
         <v>595</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J5" t="s">
         <v>616</v>
@@ -5708,6 +6295,9 @@
       </c>
       <c r="G6" t="s">
         <v>499</v>
+      </c>
+      <c r="I6" t="s">
+        <v>331</v>
       </c>
       <c r="J6" t="s">
         <v>63</v>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="624">
   <si>
     <t>description</t>
   </si>
@@ -2226,13 +2226,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="94" x14ac:knownFonts="1">
+  <fonts count="126" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2836,8 +2848,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3627,8 +3841,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5076,6 +5596,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5083,7 +6167,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="155">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5430,52 +6514,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="115" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="115" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="118" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="118" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="121" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="121" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="124" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="124" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="130" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="130" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="133" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="133" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="136" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="136" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="136" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="136" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="142" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="145" fontId="96" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="148" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="151" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="157" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="160" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="163" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="163" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="169" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="172" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="175" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="178" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="184" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="187" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="190" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="190" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5890,7 +7070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6758,7 +7938,7 @@
         <v>279</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>623</v>
       </c>
       <c r="V19" t="s">
         <v>92</v>
@@ -6775,7 +7955,7 @@
         <v>280</v>
       </c>
       <c r="J20" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s">
         <v>93</v>
@@ -6792,7 +7972,7 @@
         <v>281</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="V21" t="s">
         <v>94</v>
@@ -6809,7 +7989,7 @@
         <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s">
         <v>95</v>
@@ -6826,7 +8006,7 @@
         <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="V23" t="s">
         <v>96</v>
@@ -6843,7 +8023,7 @@
         <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
         <v>97</v>
@@ -6859,6 +8039,9 @@
       <c r="F25" t="s">
         <v>67</v>
       </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
       <c r="V25" t="s">
         <v>98</v>
       </c>
@@ -6893,7 +8076,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>399</v>
+        <v>620</v>
       </c>
       <c r="F28" t="s">
         <v>266</v>
@@ -6904,7 +8087,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>55</v>
+        <v>621</v>
       </c>
       <c r="F29" t="s">
         <v>267</v>
@@ -6915,7 +8098,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="F30" t="s">
         <v>201</v>
@@ -6926,7 +8109,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
         <v>258</v>
@@ -6937,7 +8120,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>268</v>
@@ -6948,7 +8131,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>243</v>
@@ -6959,7 +8142,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
         <v>313</v>
@@ -6970,7 +8153,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>290</v>
@@ -6981,7 +8164,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
         <v>244</v>
@@ -6991,6 +8174,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
       <c r="F37" t="s">
         <v>291</v>
       </c>
@@ -6999,6 +8185,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
       <c r="F38" t="s">
         <v>250</v>
       </c>
@@ -7283,7 +8472,7 @@
         <v>327</v>
       </c>
       <c r="V73" t="s">
-        <v>128</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74">
@@ -7291,7 +8480,7 @@
         <v>263</v>
       </c>
       <c r="V74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
@@ -7299,7 +8488,7 @@
         <v>269</v>
       </c>
       <c r="V75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
@@ -7307,7 +8496,7 @@
         <v>274</v>
       </c>
       <c r="V76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
@@ -7315,7 +8504,7 @@
         <v>412</v>
       </c>
       <c r="V77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -7323,7 +8512,7 @@
         <v>315</v>
       </c>
       <c r="V78" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
@@ -7331,7 +8520,7 @@
         <v>253</v>
       </c>
       <c r="V79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -7339,7 +8528,7 @@
         <v>264</v>
       </c>
       <c r="V80" t="s">
-        <v>501</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81">
@@ -7347,7 +8536,7 @@
         <v>270</v>
       </c>
       <c r="V81" t="s">
-        <v>186</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82">
@@ -7355,7 +8544,7 @@
         <v>259</v>
       </c>
       <c r="V82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
@@ -7363,7 +8552,7 @@
         <v>254</v>
       </c>
       <c r="V83" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84">
@@ -7371,7 +8560,7 @@
         <v>271</v>
       </c>
       <c r="V84" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -7379,7 +8568,7 @@
         <v>255</v>
       </c>
       <c r="V85" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
@@ -7387,7 +8576,7 @@
         <v>256</v>
       </c>
       <c r="V86" t="s">
-        <v>428</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87">
@@ -7395,7 +8584,7 @@
         <v>288</v>
       </c>
       <c r="V87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88">
@@ -7403,7 +8592,7 @@
         <v>294</v>
       </c>
       <c r="V88" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89">
@@ -7411,7 +8600,7 @@
         <v>278</v>
       </c>
       <c r="V89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
@@ -7419,7 +8608,7 @@
         <v>323</v>
       </c>
       <c r="V90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91">
@@ -7427,7 +8616,7 @@
         <v>260</v>
       </c>
       <c r="V91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92">
@@ -7435,136 +8624,141 @@
         <v>261</v>
       </c>
       <c r="V92" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -27,31 +27,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="638">
   <si>
     <t>description</t>
   </si>
@@ -2238,13 +2239,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="126" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3050,8 +3093,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4147,8 +4291,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -6160,6 +6457,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6167,7 +6746,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6610,52 +7189,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="169" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="169" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="172" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="172" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="175" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="175" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="178" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="178" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="184" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="184" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="187" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="187" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="190" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="190" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="190" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="190" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="196" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="199" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="202" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="205" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="211" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="214" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="217" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="217" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7070,7 +7697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7119,48 +7746,51 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
+        <v>624</v>
+      </c>
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>379</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>396</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>340</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>380</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>397</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7202,48 +7832,51 @@
         <v>416</v>
       </c>
       <c r="M2" t="s">
+        <v>629</v>
+      </c>
+      <c r="N2" t="s">
         <v>400</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>413</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>236</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>202</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>381</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>402</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>403</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>364</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>390</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>156</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>168</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>415</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7270,7 +7903,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>625</v>
       </c>
       <c r="I3" t="s">
         <v>332</v>
@@ -7284,43 +7917,46 @@
       <c r="L3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>630</v>
+      </c>
+      <c r="O3" t="s">
         <v>414</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>203</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>382</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>404</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>365</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>391</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>83</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>157</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>347</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7343,6 +7979,9 @@
       <c r="G4" t="s">
         <v>498</v>
       </c>
+      <c r="H4" t="s">
+        <v>626</v>
+      </c>
       <c r="I4" t="s">
         <v>333</v>
       </c>
@@ -7355,43 +7994,46 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>631</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>224</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>204</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>383</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>405</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>341</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>392</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>337</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>158</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>407</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7423,40 +8065,40 @@
       <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>225</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>205</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>384</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>406</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>342</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>338</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>159</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>164</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>408</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7485,37 +8127,37 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>226</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>374</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>385</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>344</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>84</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>437</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>165</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>171</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>409</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7541,37 +8183,37 @@
       <c r="L7" t="s">
         <v>298</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>227</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>401</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>386</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>343</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>85</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>438</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>166</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>172</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>410</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7597,34 +8239,34 @@
       <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>417</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>228</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>387</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>345</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>86</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>160</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>411</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7650,26 +8292,26 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>418</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>388</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>346</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>194</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>174</v>
       </c>
-      <c r="AA9" t="s">
-        <v>218</v>
+      <c r="AB9" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="10">
@@ -7691,23 +8333,23 @@
       <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>419</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>389</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>240</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>175</v>
       </c>
-      <c r="AA10" t="s">
-        <v>219</v>
+      <c r="AB10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="11">
@@ -7727,22 +8369,22 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>435</v>
-      </c>
-      <c r="N11" t="s">
+        <v>627</v>
+      </c>
+      <c r="O11" t="s">
         <v>420</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>231</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
-      <c r="AA11" t="s">
-        <v>220</v>
+      <c r="AB11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -7762,24 +8404,27 @@
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" t="s">
+        <v>435</v>
+      </c>
+      <c r="O12" t="s">
         <v>421</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>232</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>176</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>624</v>
       </c>
       <c r="D13" t="s">
         <v>324</v>
@@ -7794,24 +8439,27 @@
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
+        <v>628</v>
+      </c>
+      <c r="O13" t="s">
         <v>422</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>237</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>309</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>177</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -7826,24 +8474,24 @@
         <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
         <v>423</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>233</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -7854,22 +8502,25 @@
       <c r="J15" t="s">
         <v>596</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
         <v>424</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>234</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>89</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
         <v>368</v>
@@ -7880,19 +8531,22 @@
       <c r="J16" t="s">
         <v>74</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
         <v>235</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>66</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>369</v>
@@ -7903,16 +8557,16 @@
       <c r="J17" t="s">
         <v>75</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>90</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
         <v>398</v>
@@ -7923,13 +8577,13 @@
       <c r="J18" t="s">
         <v>363</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
@@ -7940,13 +8594,13 @@
       <c r="J19" t="s">
         <v>623</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
@@ -7957,13 +8611,13 @@
       <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
         <v>239</v>
@@ -7974,13 +8628,13 @@
       <c r="J21" t="s">
         <v>375</v>
       </c>
-      <c r="V21" t="s">
-        <v>94</v>
+      <c r="W21" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -7991,13 +8645,13 @@
       <c r="J22" t="s">
         <v>76</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>304</v>
@@ -8008,13 +8662,13 @@
       <c r="J23" t="s">
         <v>434</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>54</v>
@@ -8025,13 +8679,13 @@
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>496</v>
@@ -8042,13 +8696,13 @@
       <c r="J25" t="s">
         <v>39</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>208</v>
@@ -8056,13 +8710,13 @@
       <c r="F26" t="s">
         <v>265</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
         <v>209</v>
@@ -8070,18 +8724,21 @@
       <c r="F27" t="s">
         <v>249</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
       <c r="D28" t="s">
         <v>620</v>
       </c>
       <c r="F28" t="s">
         <v>266</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8092,7 +8749,7 @@
       <c r="F29" t="s">
         <v>267</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8103,7 +8760,7 @@
       <c r="F30" t="s">
         <v>201</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8114,7 +8771,7 @@
       <c r="F31" t="s">
         <v>258</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8125,7 +8782,7 @@
       <c r="F32" t="s">
         <v>268</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8136,7 +8793,7 @@
       <c r="F33" t="s">
         <v>243</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8147,7 +8804,7 @@
       <c r="F34" t="s">
         <v>313</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8158,7 +8815,7 @@
       <c r="F35" t="s">
         <v>290</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8169,7 +8826,7 @@
       <c r="F36" t="s">
         <v>244</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8180,7 +8837,7 @@
       <c r="F37" t="s">
         <v>291</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>425</v>
       </c>
     </row>
@@ -8191,7 +8848,7 @@
       <c r="F38" t="s">
         <v>250</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8199,7 +8856,7 @@
       <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8207,7 +8864,7 @@
       <c r="F40" t="s">
         <v>197</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8215,7 +8872,7 @@
       <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8223,7 +8880,7 @@
       <c r="F42" t="s">
         <v>283</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8231,7 +8888,7 @@
       <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8239,7 +8896,7 @@
       <c r="F44" t="s">
         <v>326</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8247,7 +8904,7 @@
       <c r="F45" t="s">
         <v>325</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8255,7 +8912,7 @@
       <c r="F46" t="s">
         <v>196</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8263,7 +8920,7 @@
       <c r="F47" t="s">
         <v>303</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8271,7 +8928,7 @@
       <c r="F48" t="s">
         <v>322</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8279,7 +8936,7 @@
       <c r="F49" t="s">
         <v>351</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8287,7 +8944,7 @@
       <c r="F50" t="s">
         <v>285</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8295,470 +8952,485 @@
       <c r="F51" t="s">
         <v>339</v>
       </c>
-      <c r="V51" t="s">
-        <v>617</v>
+      <c r="W51" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>314</v>
       </c>
-      <c r="V52" t="s">
-        <v>116</v>
+      <c r="W52" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>251</v>
       </c>
-      <c r="V53" t="s">
-        <v>329</v>
+      <c r="W53" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>275</v>
       </c>
-      <c r="V54" t="s">
-        <v>612</v>
+      <c r="W54" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>276</v>
       </c>
-      <c r="V55" t="s">
-        <v>117</v>
+      <c r="W55" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>277</v>
       </c>
-      <c r="V56" t="s">
-        <v>118</v>
+      <c r="W56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="V57" t="s">
-        <v>119</v>
+      <c r="W57" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>295</v>
       </c>
-      <c r="V58" t="s">
-        <v>120</v>
+      <c r="W58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>320</v>
       </c>
-      <c r="V59" t="s">
-        <v>121</v>
+      <c r="W59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>292</v>
       </c>
-      <c r="V60" t="s">
-        <v>122</v>
+      <c r="W60" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>293</v>
       </c>
-      <c r="V61" t="s">
-        <v>123</v>
+      <c r="W61" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>352</v>
       </c>
-      <c r="V62" t="s">
-        <v>430</v>
+      <c r="W62" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>353</v>
       </c>
-      <c r="V63" t="s">
-        <v>199</v>
+      <c r="W63" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>328</v>
       </c>
-      <c r="V64" t="s">
-        <v>372</v>
+      <c r="W64" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>296</v>
       </c>
-      <c r="V65" t="s">
-        <v>436</v>
+      <c r="W65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>252</v>
       </c>
-      <c r="V66" t="s">
-        <v>124</v>
+      <c r="W66" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>336</v>
       </c>
-      <c r="V67" t="s">
-        <v>125</v>
+      <c r="W67" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>297</v>
       </c>
-      <c r="V68" t="s">
-        <v>126</v>
+      <c r="W68" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>393</v>
       </c>
-      <c r="V69" t="s">
-        <v>127</v>
+      <c r="W69" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>287</v>
       </c>
-      <c r="V70" t="s">
-        <v>182</v>
+      <c r="W70" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>394</v>
       </c>
-      <c r="V71" t="s">
-        <v>183</v>
+      <c r="W71" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>245</v>
       </c>
-      <c r="V72" t="s">
-        <v>531</v>
+      <c r="W72" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>327</v>
       </c>
-      <c r="V73" t="s">
-        <v>622</v>
+      <c r="W73" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>263</v>
       </c>
-      <c r="V74" t="s">
-        <v>128</v>
+      <c r="W74" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>269</v>
       </c>
-      <c r="V75" t="s">
-        <v>129</v>
+      <c r="W75" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>274</v>
       </c>
-      <c r="V76" t="s">
-        <v>130</v>
+      <c r="W76" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>412</v>
       </c>
-      <c r="V77" t="s">
-        <v>131</v>
+      <c r="W77" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>315</v>
       </c>
-      <c r="V78" t="s">
-        <v>132</v>
+      <c r="W78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>253</v>
       </c>
-      <c r="V79" t="s">
-        <v>184</v>
+      <c r="W79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>264</v>
       </c>
-      <c r="V80" t="s">
-        <v>185</v>
+      <c r="W80" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>270</v>
       </c>
-      <c r="V81" t="s">
-        <v>501</v>
+      <c r="W81" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>259</v>
       </c>
-      <c r="V82" t="s">
-        <v>186</v>
+      <c r="W82" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>254</v>
       </c>
-      <c r="V83" t="s">
-        <v>187</v>
+      <c r="W83" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>271</v>
       </c>
-      <c r="V84" t="s">
-        <v>200</v>
+      <c r="W84" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>255</v>
       </c>
-      <c r="V85" t="s">
-        <v>133</v>
+      <c r="W85" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>256</v>
       </c>
-      <c r="V86" t="s">
-        <v>188</v>
+      <c r="W86" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>288</v>
       </c>
-      <c r="V87" t="s">
-        <v>428</v>
+      <c r="W87" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>294</v>
       </c>
-      <c r="V88" t="s">
-        <v>429</v>
+      <c r="W88" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>278</v>
       </c>
-      <c r="V89" t="s">
-        <v>189</v>
+      <c r="W89" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>323</v>
       </c>
-      <c r="V90" t="s">
-        <v>190</v>
+      <c r="W90" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>260</v>
       </c>
-      <c r="V91" t="s">
-        <v>191</v>
+      <c r="W91" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>261</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -21,38 +21,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4703" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="655">
   <si>
     <t>description</t>
   </si>
@@ -2281,13 +2282,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="190" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3194,8 +3246,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="221">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4444,8 +4799,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6739,6 +7553,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6746,7 +8406,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="219">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7237,52 +8897,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="196" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="196" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="199" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="199" fontId="128" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="202" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="202" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="205" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="205" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="211" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="211" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="214" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="214" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="217" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="217" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="217" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="217" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="223" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="226" fontId="144" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="229" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="232" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="238" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="241" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="244" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="244" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="250" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="253" fontId="160" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="256" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="259" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="265" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="268" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="271" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="271" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="277" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="280" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="283" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="286" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="292" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="295" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="298" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="298" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7697,7 +9501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7719,78 +9523,81 @@
         <v>613</v>
       </c>
       <c r="D1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>330</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>316</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>624</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>181</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>379</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>340</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>380</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>397</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7805,79 +9612,82 @@
         <v>614</v>
       </c>
       <c r="D2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>497</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>619</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>367</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>416</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>629</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>400</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>413</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>236</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>202</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>381</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>402</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>403</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>364</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>390</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>82</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>415</v>
       </c>
-      <c r="AB2" t="s">
-        <v>211</v>
+      <c r="AC2" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -7891,1546 +9701,1595 @@
         <v>615</v>
       </c>
       <c r="D3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" t="s">
         <v>610</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>348</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>625</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>332</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>324</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>317</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>630</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>414</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>203</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>382</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>404</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>365</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>391</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>347</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" t="s">
-        <v>212</v>
+      <c r="AC3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>638</v>
       </c>
       <c r="B4" t="s">
         <v>357</v>
       </c>
       <c r="D4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>370</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>498</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>626</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>333</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>221</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>318</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>631</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>20</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>224</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>204</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>383</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>405</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>341</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>392</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>337</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>163</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>407</v>
       </c>
-      <c r="AB4" t="s">
-        <v>213</v>
+      <c r="AC4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
       </c>
       <c r="D5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E5" t="s">
         <v>611</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>433</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>319</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>595</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>334</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>616</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>205</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>384</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>406</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>342</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>338</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>164</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>408</v>
       </c>
-      <c r="AB5" t="s">
-        <v>214</v>
+      <c r="AC5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>371</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>499</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>331</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>226</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>374</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>385</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>344</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>84</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>437</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>165</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>171</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>409</v>
       </c>
-      <c r="AB6" t="s">
-        <v>215</v>
+      <c r="AC6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>207</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>349</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>466</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>298</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>227</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>401</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>386</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>343</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>85</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>438</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>166</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>172</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>410</v>
       </c>
-      <c r="AB7" t="s">
-        <v>216</v>
+      <c r="AC7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>301</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>350</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>311</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>417</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>228</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>387</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>345</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>167</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>411</v>
       </c>
-      <c r="AB8" t="s">
-        <v>217</v>
+      <c r="AC8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>289</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>312</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>418</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>229</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>388</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>346</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>194</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>174</v>
       </c>
-      <c r="AB9" t="s">
-        <v>636</v>
+      <c r="AC9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" t="s">
         <v>298</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>335</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>500</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>373</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>419</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>230</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>389</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>240</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>175</v>
       </c>
-      <c r="AB10" t="s">
-        <v>637</v>
+      <c r="AC10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>238</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>257</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>305</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>627</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>420</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>231</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>242</v>
       </c>
-      <c r="AB11" t="s">
-        <v>218</v>
+      <c r="AC11" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
         <v>302</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>246</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>306</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>421</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>232</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>87</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>176</v>
       </c>
-      <c r="AB12" t="s">
-        <v>219</v>
+      <c r="AC12" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>624</v>
-      </c>
-      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>324</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>299</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>307</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>628</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>422</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>237</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>309</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>177</v>
       </c>
-      <c r="AB13" t="s">
-        <v>220</v>
+      <c r="AC13" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>247</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>308</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>423</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>233</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>178</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>248</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>596</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="O15" t="s">
-        <v>424</v>
-      </c>
       <c r="P15" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q15" t="s">
         <v>234</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>89</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>179</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
         <v>368</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>300</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
       <c r="P16" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q16" t="s">
         <v>235</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>180</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
         <v>369</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>75</v>
       </c>
-      <c r="W17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>654</v>
+      </c>
+      <c r="AA17" t="s">
         <v>618</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
         <v>398</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>363</v>
       </c>
-      <c r="W18" t="s">
-        <v>91</v>
+      <c r="X18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>279</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>623</v>
       </c>
-      <c r="W19" t="s">
-        <v>92</v>
+      <c r="X19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>280</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="W20" t="s">
-        <v>93</v>
+      <c r="X20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="s">
         <v>239</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>281</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="W21" t="s">
-        <v>632</v>
+      <c r="X21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>282</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>76</v>
       </c>
-      <c r="W22" t="s">
-        <v>95</v>
+      <c r="X22" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" t="s">
         <v>304</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>273</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>434</v>
       </c>
-      <c r="W23" t="s">
-        <v>96</v>
+      <c r="X23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>262</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
-      <c r="W24" t="s">
-        <v>97</v>
+      <c r="X24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>496</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="W25" t="s">
-        <v>98</v>
+      <c r="X25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>208</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>265</v>
       </c>
-      <c r="W26" t="s">
-        <v>99</v>
+      <c r="X26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>397</v>
-      </c>
-      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>209</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>249</v>
       </c>
-      <c r="W27" t="s">
-        <v>310</v>
+      <c r="X27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" t="s">
+        <v>620</v>
+      </c>
+      <c r="G28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="D28" t="s">
-        <v>620</v>
-      </c>
-      <c r="F28" t="s">
-        <v>266</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>621</v>
+      </c>
+      <c r="G29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>621</v>
-      </c>
-      <c r="F29" t="s">
-        <v>267</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>399</v>
+      </c>
+      <c r="G30" t="s">
+        <v>201</v>
+      </c>
+      <c r="X30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>399</v>
-      </c>
-      <c r="F30" t="s">
-        <v>201</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>258</v>
+      </c>
+      <c r="X31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>258</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>268</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>243</v>
+      </c>
+      <c r="X33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>243</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>313</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" t="s">
-        <v>290</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>244</v>
+      </c>
+      <c r="X36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>244</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>291</v>
+      </c>
+      <c r="X37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>291</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>250</v>
+      </c>
+      <c r="X38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="X39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="X40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>197</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>272</v>
+      </c>
+      <c r="X41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>272</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>283</v>
+      </c>
+      <c r="X42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>283</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>284</v>
+      </c>
+      <c r="X43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>284</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>326</v>
+      </c>
+      <c r="X44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>326</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>325</v>
+      </c>
+      <c r="X45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>325</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>196</v>
+      </c>
+      <c r="X46" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>196</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>303</v>
+      </c>
+      <c r="X47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>303</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>322</v>
+      </c>
+      <c r="X48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>322</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>351</v>
+      </c>
+      <c r="X49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>351</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+      <c r="X50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>285</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="X51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>339</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+      <c r="X52" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>314</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>251</v>
+      </c>
+      <c r="X53" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>251</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>275</v>
+      </c>
+      <c r="X54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>275</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>276</v>
+      </c>
+      <c r="X55" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>276</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>277</v>
+      </c>
+      <c r="X56" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>277</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>286</v>
+      </c>
+      <c r="X57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>286</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
+      <c r="X58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>295</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>320</v>
+      </c>
+      <c r="X59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>320</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>292</v>
+      </c>
+      <c r="X60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>292</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>293</v>
+      </c>
+      <c r="X61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>293</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>352</v>
+      </c>
+      <c r="X62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>352</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>353</v>
+      </c>
+      <c r="X63" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>353</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>328</v>
+      </c>
+      <c r="X64" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>328</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>296</v>
+      </c>
+      <c r="X65" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>296</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>252</v>
+      </c>
+      <c r="X66" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>252</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>336</v>
+      </c>
+      <c r="X67" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>336</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>297</v>
+      </c>
+      <c r="X68" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>297</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>393</v>
+      </c>
+      <c r="X69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>393</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>287</v>
+      </c>
+      <c r="X70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>287</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>394</v>
+      </c>
+      <c r="X71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>394</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>245</v>
+      </c>
+      <c r="X72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>245</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>327</v>
+      </c>
+      <c r="X73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>327</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>263</v>
+      </c>
+      <c r="X74" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>263</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>269</v>
+      </c>
+      <c r="X75" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>269</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>274</v>
+      </c>
+      <c r="X76" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>274</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>412</v>
+      </c>
+      <c r="X77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>412</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>315</v>
+      </c>
+      <c r="X78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>315</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>253</v>
+      </c>
+      <c r="X79" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>253</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+      <c r="X80" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>270</v>
+      </c>
+      <c r="X81" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>264</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>259</v>
+      </c>
+      <c r="X82" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>270</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>254</v>
+      </c>
+      <c r="X83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>259</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>271</v>
+      </c>
+      <c r="X84" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>254</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>255</v>
+      </c>
+      <c r="X85" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>271</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>256</v>
+      </c>
+      <c r="X86" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>255</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>288</v>
+      </c>
+      <c r="X87" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>256</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>294</v>
+      </c>
+      <c r="X88" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>288</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+      <c r="X89" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>294</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>323</v>
+      </c>
+      <c r="X90" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>278</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>260</v>
+      </c>
+      <c r="X91" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>323</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>261</v>
+      </c>
+      <c r="X92" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>260</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>261</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="662">
   <si>
     <t>description</t>
   </si>
@@ -2333,13 +2333,34 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="190" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3549,8 +3570,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="302">
+  <fills count="329">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5258,8 +5380,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -8399,6 +8674,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8406,7 +8963,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9041,52 +9598,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="277" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="277" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="280" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="280" fontId="176" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="283" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="283" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="286" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="286" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="292" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="292" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="295" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="295" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="298" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="298" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="298" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="298" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="304" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="307" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="310" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="313" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="319" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="322" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="325" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="325" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9501,7 +10106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9931,6 +10536,9 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" t="s">
+        <v>655</v>
+      </c>
       <c r="G6" t="s">
         <v>371</v>
       </c>
@@ -10053,7 +10661,7 @@
         <v>311</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>658</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -10106,7 +10714,7 @@
         <v>312</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -10147,7 +10755,7 @@
         <v>500</v>
       </c>
       <c r="K10" t="s">
-        <v>373</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -10185,7 +10793,7 @@
         <v>305</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>659</v>
       </c>
       <c r="M11" t="s">
         <v>627</v>
@@ -10220,7 +10828,7 @@
         <v>306</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>373</v>
       </c>
       <c r="M12" t="s">
         <v>435</v>
@@ -10255,7 +10863,7 @@
         <v>307</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
         <v>628</v>
@@ -10290,7 +10898,7 @@
         <v>308</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>33</v>
@@ -10322,7 +10930,7 @@
         <v>248</v>
       </c>
       <c r="K15" t="s">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="M15" t="s">
         <v>34</v>
@@ -10354,7 +10962,7 @@
         <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -10386,7 +10994,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
         <v>654</v>
@@ -10409,7 +11017,7 @@
         <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>363</v>
+        <v>596</v>
       </c>
       <c r="X18" t="s">
         <v>90</v>
@@ -10429,7 +11037,7 @@
         <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>623</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s">
         <v>91</v>
@@ -10449,7 +11057,7 @@
         <v>280</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
         <v>92</v>
@@ -10469,7 +11077,7 @@
         <v>281</v>
       </c>
       <c r="K21" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="X21" t="s">
         <v>93</v>
@@ -10489,7 +11097,7 @@
         <v>282</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>623</v>
       </c>
       <c r="X22" t="s">
         <v>632</v>
@@ -10506,7 +11114,7 @@
         <v>273</v>
       </c>
       <c r="K23" t="s">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s">
         <v>95</v>
@@ -10523,7 +11131,7 @@
         <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="X24" t="s">
         <v>96</v>
@@ -10540,7 +11148,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s">
         <v>97</v>
@@ -10556,6 +11164,9 @@
       <c r="G26" t="s">
         <v>265</v>
       </c>
+      <c r="K26" t="s">
+        <v>434</v>
+      </c>
       <c r="X26" t="s">
         <v>98</v>
       </c>
@@ -10570,6 +11181,9 @@
       <c r="G27" t="s">
         <v>249</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
       <c r="X27" t="s">
         <v>99</v>
       </c>
@@ -10584,6 +11198,9 @@
       <c r="G28" t="s">
         <v>266</v>
       </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="X28" t="s">
         <v>310</v>
       </c>
@@ -10640,7 +11257,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="X33" t="s">
         <v>104</v>
@@ -10651,7 +11268,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="X34" t="s">
         <v>105</v>
@@ -10662,7 +11279,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="X35" t="s">
         <v>195</v>
@@ -10673,7 +11290,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="X36" t="s">
         <v>106</v>
@@ -10684,7 +11301,7 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="X37" t="s">
         <v>321</v>
@@ -10695,7 +11312,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="X38" t="s">
         <v>425</v>
@@ -10703,7 +11320,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="X39" t="s">
         <v>376</v>
@@ -10711,7 +11328,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="X40" t="s">
         <v>107</v>
@@ -10719,7 +11336,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="X41" t="s">
         <v>108</v>
@@ -10727,7 +11344,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="X42" t="s">
         <v>109</v>
@@ -10735,7 +11352,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X43" t="s">
         <v>110</v>
@@ -10743,7 +11360,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="X44" t="s">
         <v>111</v>
@@ -10751,7 +11368,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X45" t="s">
         <v>112</v>
@@ -10759,7 +11376,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="X46" t="s">
         <v>431</v>
@@ -10767,7 +11384,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="X47" t="s">
         <v>198</v>
@@ -10775,7 +11392,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="X48" t="s">
         <v>68</v>
@@ -10783,7 +11400,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="X49" t="s">
         <v>113</v>
@@ -10791,7 +11408,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="X50" t="s">
         <v>114</v>
@@ -10799,7 +11416,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s">
         <v>115</v>
@@ -10807,7 +11424,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="X52" t="s">
         <v>633</v>
@@ -10815,7 +11432,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="X53" t="s">
         <v>617</v>
@@ -10823,7 +11440,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="X54" t="s">
         <v>116</v>
@@ -10831,7 +11448,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X55" t="s">
         <v>329</v>
@@ -10839,7 +11456,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X56" t="s">
         <v>612</v>
@@ -10847,7 +11464,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="X57" t="s">
         <v>117</v>
@@ -10855,7 +11472,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="X58" t="s">
         <v>118</v>
@@ -10863,7 +11480,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="X59" t="s">
         <v>119</v>
@@ -10871,7 +11488,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="X60" t="s">
         <v>120</v>
@@ -10879,7 +11496,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X61" t="s">
         <v>121</v>
@@ -10887,7 +11504,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="X62" t="s">
         <v>122</v>
@@ -10895,7 +11512,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X63" t="s">
         <v>123</v>
@@ -10903,7 +11520,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="X64" t="s">
         <v>430</v>
@@ -10911,7 +11528,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X65" t="s">
         <v>634</v>
@@ -10919,7 +11536,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="X66" t="s">
         <v>199</v>
@@ -10927,7 +11544,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="X67" t="s">
         <v>372</v>
@@ -10935,7 +11552,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="X68" t="s">
         <v>436</v>
@@ -10943,7 +11560,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="X69" t="s">
         <v>124</v>
@@ -10951,7 +11568,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="X70" t="s">
         <v>125</v>
@@ -10959,7 +11576,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="X71" t="s">
         <v>126</v>
@@ -10967,7 +11584,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="X72" t="s">
         <v>127</v>
@@ -10975,7 +11592,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="X73" t="s">
         <v>182</v>
@@ -10983,7 +11600,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>263</v>
+        <v>657</v>
       </c>
       <c r="X74" t="s">
         <v>183</v>
@@ -10991,7 +11608,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="X75" t="s">
         <v>531</v>
@@ -10999,7 +11616,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="X76" t="s">
         <v>622</v>
@@ -11007,7 +11624,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="X77" t="s">
         <v>128</v>
@@ -11015,7 +11632,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="X78" t="s">
         <v>129</v>
@@ -11023,7 +11640,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="X79" t="s">
         <v>130</v>
@@ -11031,7 +11648,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="X80" t="s">
         <v>648</v>
@@ -11039,7 +11656,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="X81" t="s">
         <v>131</v>
@@ -11047,7 +11664,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="X82" t="s">
         <v>132</v>
@@ -11055,7 +11672,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="X83" t="s">
         <v>184</v>
@@ -11063,7 +11680,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="X84" t="s">
         <v>635</v>
@@ -11071,7 +11688,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X85" t="s">
         <v>185</v>
@@ -11079,7 +11696,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="X86" t="s">
         <v>501</v>
@@ -11087,7 +11704,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="X87" t="s">
         <v>186</v>
@@ -11095,7 +11712,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="X88" t="s">
         <v>187</v>
@@ -11103,7 +11720,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="X89" t="s">
         <v>200</v>
@@ -11111,7 +11728,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="X90" t="s">
         <v>133</v>
@@ -11119,7 +11736,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="X91" t="s">
         <v>188</v>
@@ -11127,18 +11744,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="X92" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>260</v>
+      </c>
       <c r="X93" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>261</v>
+      </c>
       <c r="X94" t="s">
         <v>189</v>
       </c>
@@ -11170,126 +11793,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>134</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7786" uniqueCount="664">
   <si>
     <t>description</t>
   </si>
@@ -2354,13 +2354,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3671,8 +3677,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="329">
+  <fills count="389">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5533,8 +5741,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8956,6 +9504,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8963,7 +10075,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="267">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9646,52 +10758,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="304" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="304" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="307" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="307" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="310" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="310" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="313" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="313" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="319" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="319" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="322" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="322" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="325" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="325" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="325" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="325" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="331" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="334" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="337" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="340" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="346" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="349" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="352" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="352" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="358" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="361" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="364" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="367" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="370" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="376" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="379" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10106,7 +11314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11798,126 +13006,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>134</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>135</v>
+        <v>663</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>432</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>149</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -32,28 +32,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7786" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8842" uniqueCount="671">
   <si>
     <t>description</t>
   </si>
@@ -2360,13 +2361,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="270" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3879,8 +3901,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="389">
+  <fills count="449">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6081,8 +6305,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -10068,6 +10632,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10075,7 +11203,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="299">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10854,52 +11982,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="358" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="361" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="361" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="364" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="364" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="367" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="367" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="370" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="370" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="373" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="373" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="376" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="376" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="379" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="379" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="382" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="382" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="382" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="370" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="385" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="385" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="370" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="388" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="388" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="391" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="394" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="397" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="400" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="403" fontId="244" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="406" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="409" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="412" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="412" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="400" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="415" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="400" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="418" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="421" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="424" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="427" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="430" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="436" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="439" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="442" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="442" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11314,7 +12538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11366,51 +12590,54 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
+        <v>664</v>
+      </c>
+      <c r="O1" t="s">
         <v>624</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>222</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>379</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>340</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>380</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>397</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11455,51 +12682,54 @@
         <v>416</v>
       </c>
       <c r="N2" t="s">
+        <v>665</v>
+      </c>
+      <c r="O2" t="s">
         <v>629</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>400</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>413</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>202</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>381</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>402</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>403</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>364</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>390</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>156</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>161</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>415</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>643</v>
       </c>
     </row>
@@ -11544,45 +12774,48 @@
         <v>77</v>
       </c>
       <c r="N3" t="s">
+        <v>666</v>
+      </c>
+      <c r="O3" t="s">
         <v>630</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>414</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>223</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>203</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>404</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>365</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>391</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>157</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>347</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11624,45 +12857,48 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
+        <v>667</v>
+      </c>
+      <c r="O4" t="s">
         <v>631</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>224</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>204</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>383</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>405</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>341</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>392</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>337</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>407</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11697,40 +12933,43 @@
       <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>225</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>205</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>384</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>406</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>342</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>338</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>159</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>164</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>408</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>213</v>
       </c>
     </row>
@@ -11762,37 +13001,40 @@
       <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>226</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>374</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>385</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>344</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>437</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>165</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>171</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>409</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11818,37 +13060,40 @@
       <c r="M7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>227</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>401</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>386</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>343</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>85</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>438</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>166</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>172</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>410</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -11874,34 +13119,34 @@
       <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>417</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>228</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>387</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>345</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>160</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>167</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>411</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -11927,25 +13172,25 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>418</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>229</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>388</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>346</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>194</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>174</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -11968,22 +13213,22 @@
       <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>419</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>230</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>389</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>240</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>175</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>636</v>
       </c>
     </row>
@@ -12006,19 +13251,19 @@
       <c r="M11" t="s">
         <v>627</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>420</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>231</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>241</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>242</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12041,19 +13286,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>421</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>232</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>87</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>176</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12076,25 +13321,25 @@
       <c r="M13" t="s">
         <v>628</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>422</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>237</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>309</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>177</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -12111,25 +13356,25 @@
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>423</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>233</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>88</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>178</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>624</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -12143,25 +13388,25 @@
       <c r="M15" t="s">
         <v>34</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>652</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>234</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>89</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>179</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
         <v>368</v>
@@ -12175,25 +13420,25 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>653</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>235</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>180</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>369</v>
@@ -12204,19 +13449,19 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>654</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>618</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
         <v>398</v>
@@ -12227,16 +13472,16 @@
       <c r="K18" t="s">
         <v>596</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>90</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -12247,16 +13492,16 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>91</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -12267,16 +13512,16 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>92</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
         <v>239</v>
@@ -12287,16 +13532,16 @@
       <c r="K21" t="s">
         <v>363</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>93</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
         <v>53</v>
@@ -12307,13 +13552,13 @@
       <c r="K22" t="s">
         <v>623</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="E23" t="s">
         <v>304</v>
@@ -12324,13 +13569,13 @@
       <c r="K23" t="s">
         <v>37</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
         <v>54</v>
@@ -12341,13 +13586,13 @@
       <c r="K24" t="s">
         <v>375</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>496</v>
@@ -12358,13 +13603,13 @@
       <c r="K25" t="s">
         <v>76</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>208</v>
@@ -12375,13 +13620,13 @@
       <c r="K26" t="s">
         <v>434</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>209</v>
@@ -12392,13 +13637,13 @@
       <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>620</v>
@@ -12409,13 +13654,13 @@
       <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
         <v>621</v>
@@ -12423,18 +13668,21 @@
       <c r="G29" t="s">
         <v>267</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
       <c r="E30" t="s">
         <v>399</v>
       </c>
       <c r="G30" t="s">
         <v>201</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -12445,7 +13693,7 @@
       <c r="G31" t="s">
         <v>258</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -12456,7 +13704,7 @@
       <c r="G32" t="s">
         <v>268</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>103</v>
       </c>
     </row>
@@ -12467,7 +13715,7 @@
       <c r="G33" t="s">
         <v>656</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12478,7 +13726,7 @@
       <c r="G34" t="s">
         <v>243</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>105</v>
       </c>
     </row>
@@ -12489,7 +13737,7 @@
       <c r="G35" t="s">
         <v>313</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>195</v>
       </c>
     </row>
@@ -12500,7 +13748,7 @@
       <c r="G36" t="s">
         <v>290</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12511,7 +13759,7 @@
       <c r="G37" t="s">
         <v>244</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>321</v>
       </c>
     </row>
@@ -12522,7 +13770,7 @@
       <c r="G38" t="s">
         <v>291</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>425</v>
       </c>
     </row>
@@ -12530,7 +13778,7 @@
       <c r="G39" t="s">
         <v>250</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>376</v>
       </c>
     </row>
@@ -12538,7 +13786,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -12546,7 +13794,7 @@
       <c r="G41" t="s">
         <v>197</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12554,7 +13802,7 @@
       <c r="G42" t="s">
         <v>272</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12562,7 +13810,7 @@
       <c r="G43" t="s">
         <v>283</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>110</v>
       </c>
     </row>
@@ -12570,7 +13818,7 @@
       <c r="G44" t="s">
         <v>284</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -12578,7 +13826,7 @@
       <c r="G45" t="s">
         <v>326</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12586,7 +13834,7 @@
       <c r="G46" t="s">
         <v>325</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>431</v>
       </c>
     </row>
@@ -12594,7 +13842,7 @@
       <c r="G47" t="s">
         <v>196</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>198</v>
       </c>
     </row>
@@ -12602,7 +13850,7 @@
       <c r="G48" t="s">
         <v>303</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12610,7 +13858,7 @@
       <c r="G49" t="s">
         <v>322</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12618,7 +13866,7 @@
       <c r="G50" t="s">
         <v>351</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>114</v>
       </c>
     </row>
@@ -12626,7 +13874,7 @@
       <c r="G51" t="s">
         <v>285</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>115</v>
       </c>
     </row>
@@ -12634,7 +13882,7 @@
       <c r="G52" t="s">
         <v>339</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>633</v>
       </c>
     </row>
@@ -12642,7 +13890,7 @@
       <c r="G53" t="s">
         <v>314</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>617</v>
       </c>
     </row>
@@ -12650,7 +13898,7 @@
       <c r="G54" t="s">
         <v>251</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12658,7 +13906,7 @@
       <c r="G55" t="s">
         <v>275</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>329</v>
       </c>
     </row>
@@ -12666,7 +13914,7 @@
       <c r="G56" t="s">
         <v>276</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>612</v>
       </c>
     </row>
@@ -12674,7 +13922,7 @@
       <c r="G57" t="s">
         <v>277</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12682,7 +13930,7 @@
       <c r="G58" t="s">
         <v>286</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12690,7 +13938,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12698,7 +13946,7 @@
       <c r="G60" t="s">
         <v>320</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12706,7 +13954,7 @@
       <c r="G61" t="s">
         <v>292</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12714,7 +13962,7 @@
       <c r="G62" t="s">
         <v>293</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12722,7 +13970,7 @@
       <c r="G63" t="s">
         <v>352</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12730,7 +13978,7 @@
       <c r="G64" t="s">
         <v>353</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>430</v>
       </c>
     </row>
@@ -12738,7 +13986,7 @@
       <c r="G65" t="s">
         <v>328</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>634</v>
       </c>
     </row>
@@ -12746,7 +13994,7 @@
       <c r="G66" t="s">
         <v>296</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>199</v>
       </c>
     </row>
@@ -12754,7 +14002,7 @@
       <c r="G67" t="s">
         <v>252</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>372</v>
       </c>
     </row>
@@ -12762,7 +14010,7 @@
       <c r="G68" t="s">
         <v>336</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12770,7 +14018,7 @@
       <c r="G69" t="s">
         <v>297</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12778,7 +14026,7 @@
       <c r="G70" t="s">
         <v>393</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12786,7 +14034,7 @@
       <c r="G71" t="s">
         <v>287</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12794,7 +14042,7 @@
       <c r="G72" t="s">
         <v>394</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12802,7 +14050,7 @@
       <c r="G73" t="s">
         <v>245</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>182</v>
       </c>
     </row>
@@ -12810,7 +14058,7 @@
       <c r="G74" t="s">
         <v>657</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>183</v>
       </c>
     </row>
@@ -12818,7 +14066,7 @@
       <c r="G75" t="s">
         <v>327</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>531</v>
       </c>
     </row>
@@ -12826,7 +14074,7 @@
       <c r="G76" t="s">
         <v>263</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>622</v>
       </c>
     </row>
@@ -12834,7 +14082,7 @@
       <c r="G77" t="s">
         <v>269</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12842,7 +14090,7 @@
       <c r="G78" t="s">
         <v>274</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12850,7 +14098,7 @@
       <c r="G79" t="s">
         <v>412</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12858,7 +14106,7 @@
       <c r="G80" t="s">
         <v>315</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>648</v>
       </c>
     </row>
@@ -12866,7 +14114,7 @@
       <c r="G81" t="s">
         <v>253</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12874,7 +14122,7 @@
       <c r="G82" t="s">
         <v>264</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12882,7 +14130,7 @@
       <c r="G83" t="s">
         <v>270</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>184</v>
       </c>
     </row>
@@ -12890,7 +14138,7 @@
       <c r="G84" t="s">
         <v>259</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>635</v>
       </c>
     </row>
@@ -12898,7 +14146,7 @@
       <c r="G85" t="s">
         <v>254</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>185</v>
       </c>
     </row>
@@ -12906,7 +14154,7 @@
       <c r="G86" t="s">
         <v>271</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>501</v>
       </c>
     </row>
@@ -12914,7 +14162,7 @@
       <c r="G87" t="s">
         <v>255</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>186</v>
       </c>
     </row>
@@ -12922,7 +14170,7 @@
       <c r="G88" t="s">
         <v>256</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>187</v>
       </c>
     </row>
@@ -12930,7 +14178,7 @@
       <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -12938,7 +14186,7 @@
       <c r="G90" t="s">
         <v>294</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12946,7 +14194,7 @@
       <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>188</v>
       </c>
     </row>
@@ -12954,7 +14202,7 @@
       <c r="G92" t="s">
         <v>323</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>428</v>
       </c>
     </row>
@@ -12962,7 +14210,7 @@
       <c r="G93" t="s">
         <v>260</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>429</v>
       </c>
     </row>
@@ -12970,172 +14218,172 @@
       <c r="G94" t="s">
         <v>261</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -54,7 +54,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8842" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9905" uniqueCount="675">
   <si>
     <t>description</t>
   </si>
@@ -2382,13 +2382,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="270" x14ac:knownFonts="1">
+  <fonts count="302" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4103,8 +4115,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="449">
+  <fills count="509">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6645,8 +6859,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -11196,6 +11750,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11203,7 +12321,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="331">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12078,52 +13196,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="418" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="421" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="421" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="424" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="424" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="427" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="427" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="430" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="430" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="260" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="436" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="436" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="439" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="439" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="442" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="442" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="442" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="442" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="430" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="445" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="445" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="430" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="430" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="448" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="451" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="454" fontId="272" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="457" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="460" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="463" fontId="276" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="466" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="469" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="472" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="472" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="478" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="481" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="484" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="487" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="490" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="493" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="496" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="499" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="502" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="502" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12934,7 +14148,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -13002,7 +14216,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -13061,7 +14275,7 @@
         <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -13119,6 +14333,9 @@
       <c r="M8" t="s">
         <v>28</v>
       </c>
+      <c r="N8" t="s">
+        <v>668</v>
+      </c>
       <c r="Q8" t="s">
         <v>417</v>
       </c>
@@ -13172,6 +14389,9 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
+      <c r="N9" t="s">
+        <v>669</v>
+      </c>
       <c r="Q9" t="s">
         <v>418</v>
       </c>
@@ -13213,6 +14433,9 @@
       <c r="M10" t="s">
         <v>30</v>
       </c>
+      <c r="N10" t="s">
+        <v>670</v>
+      </c>
       <c r="Q10" t="s">
         <v>419</v>
       </c>
@@ -13601,7 +14824,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="Y25" t="s">
         <v>97</v>
@@ -13618,7 +14841,7 @@
         <v>265</v>
       </c>
       <c r="K26" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s">
         <v>98</v>
@@ -13635,7 +14858,7 @@
         <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="Y27" t="s">
         <v>99</v>
@@ -13652,7 +14875,7 @@
         <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s">
         <v>310</v>
@@ -13667,6 +14890,9 @@
       </c>
       <c r="G29" t="s">
         <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="Y29" t="s">
         <v>100</v>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -53,8 +53,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9905" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10440" uniqueCount="679">
   <si>
     <t>description</t>
   </si>
@@ -2394,13 +2394,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="302" x14ac:knownFonts="1">
+  <fonts count="318" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4317,8 +4329,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="509">
+  <fills count="539">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7199,8 +7312,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -12314,6 +12597,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12321,7 +12886,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="347">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13292,52 +13857,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="478" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="481" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="481" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="484" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="484" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="487" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="487" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="490" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="490" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="493" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="493" fontId="292" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="496" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="496" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="499" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="499" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="502" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="502" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="502" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="502" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="505" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="508" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="508" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="511" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="514" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="517" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="520" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="523" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="526" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="529" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="532" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="532" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="520" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="535" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="520" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="538" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13958,7 +14571,7 @@
         <v>615</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="E3" t="s">
         <v>610</v>
@@ -14041,7 +14654,7 @@
         <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -14124,7 +14737,7 @@
         <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E5" t="s">
         <v>611</v>
@@ -14148,7 +14761,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
@@ -14194,6 +14807,9 @@
       <c r="B6" t="s">
         <v>359</v>
       </c>
+      <c r="D6" t="s">
+        <v>642</v>
+      </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -14216,7 +14832,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -14275,7 +14891,7 @@
         <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -14334,7 +14950,7 @@
         <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="Q8" t="s">
         <v>417</v>
@@ -14390,7 +15006,7 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="Q9" t="s">
         <v>418</v>
@@ -14434,7 +15050,7 @@
         <v>30</v>
       </c>
       <c r="N10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Q10" t="s">
         <v>419</v>
@@ -14474,6 +15090,9 @@
       <c r="M11" t="s">
         <v>627</v>
       </c>
+      <c r="N11" t="s">
+        <v>669</v>
+      </c>
       <c r="Q11" t="s">
         <v>420</v>
       </c>
@@ -14509,6 +15128,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>670</v>
+      </c>
       <c r="Q12" t="s">
         <v>421</v>
       </c>
@@ -14824,7 +15446,7 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="Y25" t="s">
         <v>97</v>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -21,17 +21,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10440" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10997" uniqueCount="702">
   <si>
     <t>description</t>
   </si>
@@ -2406,13 +2406,82 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="318" x14ac:knownFonts="1">
+  <fonts count="334" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4430,8 +4499,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="539">
+  <fills count="566">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7482,8 +7652,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="567">
     <border>
       <left/>
       <right/>
@@ -12879,6 +13202,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12886,7 +13535,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="363">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13905,52 +14554,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="508" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="511" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="511" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="514" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="514" fontId="304" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="517" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="517" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="520" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="520" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="523" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="523" fontId="308" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="526" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="526" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="529" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="529" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="532" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="532" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="532" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="532" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="520" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="520" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="535" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="535" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="520" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="520" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="538" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="538" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="541" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="544" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="547" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="550" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="556" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="547" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="559" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="559" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="550" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="562" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="550" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="565" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14365,7 +15062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14746,10 +15443,13 @@
         <v>433</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>680</v>
       </c>
       <c r="H5" t="s">
         <v>595</v>
+      </c>
+      <c r="I5" t="s">
+        <v>685</v>
       </c>
       <c r="J5" t="s">
         <v>334</v>
@@ -14817,7 +15517,7 @@
         <v>655</v>
       </c>
       <c r="G6" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="H6" t="s">
         <v>499</v>
@@ -14879,11 +15579,14 @@
         <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
         <v>466</v>
       </c>
+      <c r="J7" t="s">
+        <v>686</v>
+      </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
@@ -14924,7 +15627,7 @@
         <v>410</v>
       </c>
       <c r="AD7" t="s">
-        <v>215</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8">
@@ -14938,7 +15641,7 @@
         <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
         <v>311</v>
@@ -14980,7 +15683,7 @@
         <v>411</v>
       </c>
       <c r="AD8" t="s">
-        <v>216</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9">
@@ -14994,7 +15697,7 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="H9" t="s">
         <v>312</v>
@@ -15027,7 +15730,7 @@
         <v>174</v>
       </c>
       <c r="AD9" t="s">
-        <v>217</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10">
@@ -15038,7 +15741,7 @@
         <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="H10" t="s">
         <v>500</v>
@@ -15068,7 +15771,7 @@
         <v>175</v>
       </c>
       <c r="AD10" t="s">
-        <v>636</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
@@ -15079,7 +15782,7 @@
         <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="H11" t="s">
         <v>305</v>
@@ -15106,7 +15809,7 @@
         <v>242</v>
       </c>
       <c r="AD11" t="s">
-        <v>644</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -15117,7 +15820,7 @@
         <v>302</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H12" t="s">
         <v>306</v>
@@ -15126,7 +15829,7 @@
         <v>373</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>687</v>
       </c>
       <c r="N12" t="s">
         <v>670</v>
@@ -15144,7 +15847,7 @@
         <v>176</v>
       </c>
       <c r="AD12" t="s">
-        <v>645</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
@@ -15155,7 +15858,7 @@
         <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
         <v>307</v>
@@ -15164,7 +15867,7 @@
         <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>628</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>422</v>
@@ -15179,7 +15882,7 @@
         <v>177</v>
       </c>
       <c r="AD13" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14">
@@ -15190,7 +15893,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
         <v>308</v>
@@ -15199,7 +15902,7 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>628</v>
       </c>
       <c r="Q14" t="s">
         <v>423</v>
@@ -15214,7 +15917,7 @@
         <v>178</v>
       </c>
       <c r="AD14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15">
@@ -15225,13 +15928,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K15" t="s">
         <v>660</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="s">
         <v>652</v>
@@ -15246,7 +15949,7 @@
         <v>179</v>
       </c>
       <c r="AD15" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16">
@@ -15257,13 +15960,13 @@
         <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="Q16" t="s">
         <v>653</v>
@@ -15278,7 +15981,7 @@
         <v>180</v>
       </c>
       <c r="AD16" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17">
@@ -15289,11 +15992,14 @@
         <v>369</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
       </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
       <c r="Y17" t="s">
         <v>654</v>
       </c>
@@ -15301,7 +16007,7 @@
         <v>618</v>
       </c>
       <c r="AD17" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18">
@@ -15312,16 +16018,19 @@
         <v>398</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>596</v>
       </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
       <c r="Y18" t="s">
         <v>90</v>
       </c>
       <c r="AD18" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="19">
@@ -15332,7 +16041,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -15341,7 +16050,7 @@
         <v>91</v>
       </c>
       <c r="AD19" t="s">
-        <v>218</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20">
@@ -15352,7 +16061,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -15361,7 +16070,7 @@
         <v>92</v>
       </c>
       <c r="AD20" t="s">
-        <v>219</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21">
@@ -15372,7 +16081,7 @@
         <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K21" t="s">
         <v>363</v>
@@ -15381,7 +16090,7 @@
         <v>93</v>
       </c>
       <c r="AD21" t="s">
-        <v>220</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22">
@@ -15389,16 +16098,19 @@
         <v>396</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>679</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K22" t="s">
         <v>623</v>
       </c>
       <c r="Y22" t="s">
         <v>632</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -15406,16 +16118,19 @@
         <v>340</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
         <v>37</v>
       </c>
       <c r="Y23" t="s">
         <v>95</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="24">
@@ -15423,16 +16138,19 @@
         <v>380</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s">
         <v>375</v>
       </c>
       <c r="Y24" t="s">
-        <v>96</v>
+        <v>689</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="25">
@@ -15440,16 +16158,19 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>496</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
         <v>676</v>
       </c>
       <c r="Y25" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="26">
@@ -15457,16 +16178,19 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>496</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27">
@@ -15474,16 +16198,19 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
         <v>434</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -15491,16 +16218,16 @@
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>620</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
       </c>
       <c r="Y28" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -15508,16 +16235,16 @@
         <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="Y29" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
@@ -15525,713 +16252,763 @@
         <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>399</v>
+        <v>621</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="Y31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Y32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>656</v>
+        <v>268</v>
       </c>
       <c r="Y33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="Y34" t="s">
-        <v>105</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="Y35" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>291</v>
       </c>
-      <c r="Y38" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>250</v>
-      </c>
       <c r="Y39" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s">
-        <v>107</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>108</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>283</v>
+        <v>681</v>
       </c>
       <c r="Y43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Y44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="Y45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="Y46" t="s">
-        <v>431</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>196</v>
+        <v>326</v>
       </c>
       <c r="Y47" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="Y49" t="s">
-        <v>113</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="Y50" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Y51" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Y52" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="Y53" t="s">
-        <v>617</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="Y54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="Y55" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Y56" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y57" t="s">
-        <v>117</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>682</v>
       </c>
       <c r="Y59" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="Y60" t="s">
-        <v>120</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Y61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Y62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="Y63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="Y64" t="s">
-        <v>430</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="Y65" t="s">
-        <v>634</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="Y66" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="Y67" t="s">
-        <v>372</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Y68" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y69" t="s">
-        <v>124</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="Y70" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>287</v>
+        <v>683</v>
       </c>
       <c r="Y71" t="s">
-        <v>126</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="Y72" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="Y73" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>657</v>
+        <v>287</v>
       </c>
       <c r="Y74" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="Y75" t="s">
-        <v>531</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="Y76" t="s">
-        <v>622</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>269</v>
+        <v>657</v>
       </c>
       <c r="Y77" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="Y78" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>412</v>
+        <v>263</v>
       </c>
       <c r="Y79" t="s">
-        <v>130</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="Y80" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Y81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="Y82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y83" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Y84" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Y85" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y86" t="s">
-        <v>501</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Y87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>256</v>
+        <v>684</v>
       </c>
       <c r="Y88" t="s">
-        <v>187</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Y90" t="s">
-        <v>133</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="Y91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="Y92" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y93" t="s">
-        <v>429</v>
+        <v>693</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>261</v>
       </c>
-      <c r="Y94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>206</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>661</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>662</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>663</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>136</v>
+        <v>661</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>137</v>
+        <v>662</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>139</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>432</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>152</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>154</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -21,40 +21,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10997" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12124" uniqueCount="713">
   <si>
     <t>description</t>
   </si>
@@ -2475,13 +2476,46 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="334" x14ac:knownFonts="1">
+  <fonts count="366" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4600,8 +4634,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="566">
+  <fills count="620">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7805,8 +8041,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="567">
+  <borders count="631">
     <border>
       <left/>
       <right/>
@@ -13528,6 +14070,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13535,7 +14729,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="395">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14602,52 +15796,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="538" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="541" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="541" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="544" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="544" fontId="320" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="547" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="547" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="550" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="550" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="553" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="553" fontId="324" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="556" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="556" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="547" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="547" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="559" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="559" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="559" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="559" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="550" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="550" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="562" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="562" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="550" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="550" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="565" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="565" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="568" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="571" fontId="336" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="574" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="577" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="580" fontId="340" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="583" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="574" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="586" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="586" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="577" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="589" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="577" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="592" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="595" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="598" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="601" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="604" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="610" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="601" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="613" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="613" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="604" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="616" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="604" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="619" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15062,7 +16352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15087,81 +16377,84 @@
         <v>638</v>
       </c>
       <c r="E1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>330</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>316</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>664</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>624</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>222</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>379</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>340</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>380</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>397</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15179,81 +16472,84 @@
         <v>639</v>
       </c>
       <c r="E2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>497</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>619</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>298</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>367</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>416</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>665</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>629</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>400</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>413</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>236</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>202</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>381</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>402</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>403</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>364</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>390</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>161</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>415</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>643</v>
       </c>
     </row>
@@ -15270,76 +16566,76 @@
       <c r="D3" t="s">
         <v>675</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>610</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>625</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>332</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>324</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>317</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>666</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>630</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>414</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>203</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>404</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>365</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>391</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>157</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>347</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>169</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15353,82 +16649,82 @@
       <c r="D4" t="s">
         <v>640</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>370</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>498</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>626</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>333</v>
       </c>
-      <c r="K4" t="s">
-        <v>221</v>
-      </c>
       <c r="L4" t="s">
+        <v>711</v>
+      </c>
+      <c r="M4" t="s">
         <v>318</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>667</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>631</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>224</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>383</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>405</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>341</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>392</v>
       </c>
-      <c r="Y4" t="s">
-        <v>337</v>
-      </c>
       <c r="Z4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA4" t="s">
         <v>158</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>163</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>407</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>702</v>
       </c>
       <c r="B5" t="s">
         <v>358</v>
@@ -15436,73 +16732,73 @@
       <c r="D5" t="s">
         <v>641</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>611</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>433</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>680</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>595</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>685</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>334</v>
       </c>
-      <c r="K5" t="s">
-        <v>616</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>677</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>24</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>225</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>205</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>384</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>406</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>342</v>
       </c>
-      <c r="Y5" t="s">
-        <v>338</v>
-      </c>
       <c r="Z5" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA5" t="s">
         <v>159</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>164</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>408</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>359</v>
@@ -15510,1505 +16806,1519 @@
       <c r="D6" t="s">
         <v>642</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>655</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>319</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>499</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>331</v>
       </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>616</v>
+      </c>
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>671</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>25</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>226</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>374</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>385</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>344</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>437</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>165</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>409</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>360</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>207</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>371</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>466</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>686</v>
       </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
         <v>298</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>672</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>227</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>401</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>386</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>343</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>85</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>438</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>166</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>410</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>301</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>349</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>311</v>
       </c>
-      <c r="K8" t="s">
-        <v>658</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>673</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>417</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>228</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>387</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>345</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>167</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>411</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>362</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>350</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>312</v>
       </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>658</v>
+      </c>
+      <c r="N9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>678</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>418</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>229</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>388</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>346</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>194</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>174</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>298</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>289</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>500</v>
       </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>668</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>419</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>230</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>389</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>240</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>175</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" t="s">
+        <v>704</v>
+      </c>
+      <c r="H11" t="s">
         <v>335</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>305</v>
       </c>
-      <c r="K11" t="s">
-        <v>659</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
         <v>627</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>669</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>420</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>231</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>241</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>242</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>302</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>257</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>306</v>
       </c>
-      <c r="K12" t="s">
-        <v>373</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>659</v>
+      </c>
+      <c r="N12" t="s">
         <v>687</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>670</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>421</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>232</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>87</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>176</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" t="s">
         <v>324</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>246</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>307</v>
       </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>373</v>
+      </c>
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>422</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>237</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>309</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>177</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>664</v>
-      </c>
-      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>299</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>308</v>
       </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
         <v>628</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>423</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>233</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>88</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>178</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>624</v>
-      </c>
-      <c r="E15" t="s">
+        <v>664</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>247</v>
       </c>
-      <c r="K15" t="s">
-        <v>660</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>652</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>89</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>179</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
+        <v>624</v>
+      </c>
+      <c r="F16" t="s">
         <v>368</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>660</v>
+      </c>
+      <c r="N16" t="s">
         <v>688</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>653</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>235</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>180</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
         <v>369</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>300</v>
       </c>
-      <c r="K17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
         <v>34</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>654</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>618</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>398</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="s">
-        <v>596</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>90</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
+        <v>710</v>
+      </c>
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z19" t="s">
         <v>91</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
         <v>280</v>
       </c>
-      <c r="K21" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
         <v>93</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" t="s">
-        <v>679</v>
-      </c>
-      <c r="G22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H22" t="s">
         <v>281</v>
       </c>
-      <c r="K22" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z22" t="s">
         <v>632</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F23" t="s">
+        <v>679</v>
+      </c>
+      <c r="H23" t="s">
         <v>282</v>
       </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z23" t="s">
         <v>95</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>380</v>
-      </c>
-      <c r="E24" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" t="s">
+        <v>340</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
         <v>273</v>
       </c>
-      <c r="K24" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s">
         <v>689</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" t="s">
         <v>262</v>
       </c>
-      <c r="K25" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z25" t="s">
         <v>96</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>496</v>
-      </c>
-      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z26" t="s">
         <v>97</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>496</v>
+      </c>
+      <c r="H27" t="s">
         <v>265</v>
       </c>
-      <c r="K27" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s">
         <v>98</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" t="s">
         <v>249</v>
       </c>
-      <c r="K28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" t="s">
-        <v>620</v>
-      </c>
-      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="s">
         <v>266</v>
       </c>
-      <c r="K29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" t="s">
+        <v>620</v>
+      </c>
+      <c r="H30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>210</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>621</v>
       </c>
-      <c r="G30" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>399</v>
       </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>55</v>
       </c>
-      <c r="G32" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>56</v>
       </c>
-      <c r="G33" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G34" t="s">
-        <v>656</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>59</v>
       </c>
-      <c r="G36" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>60</v>
       </c>
-      <c r="G37" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>61</v>
       </c>
-      <c r="G38" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>62</v>
       </c>
-      <c r="G39" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>250</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" t="s">
-        <v>691</v>
+      <c r="Z41" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>197</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>681</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>272</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>283</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>284</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>326</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>325</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>196</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>303</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>322</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>351</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>285</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>339</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>314</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>251</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>275</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>276</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>682</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>277</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>286</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>295</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>320</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>292</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>293</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>352</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>353</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>328</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>296</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>252</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>683</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>297</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>393</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>287</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>394</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>245</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>657</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>327</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>263</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>269</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>274</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>412</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>315</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>253</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>264</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>270</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>259</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>684</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>254</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>271</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>255</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>256</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>288</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>294</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>278</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>323</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>260</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>261</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>155</v>
       </c>
     </row>
@@ -29127,7 +30437,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>238</v>
+        <v>704</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>472</v>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -21,13 +21,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12124" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13254" uniqueCount="716">
   <si>
     <t>description</t>
   </si>
@@ -2509,13 +2509,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="366" x14ac:knownFonts="1">
+  <fonts count="398" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4836,8 +4845,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="620">
+  <fills count="674">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8347,8 +8558,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="631">
+  <borders count="695">
     <border>
       <left/>
       <right/>
@@ -14722,6 +15239,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14729,7 +15898,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="427">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15892,52 +17061,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="592" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="595" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="595" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="598" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="598" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="601" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="601" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="604" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="604" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="607" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="607" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="610" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="610" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="601" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="601" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="613" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="613" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="613" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="613" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="604" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="604" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="616" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="616" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="604" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="604" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="619" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="619" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="622" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="625" fontId="368" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="628" fontId="369" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="631" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="634" fontId="372" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="637" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="628" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="640" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="640" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="631" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="643" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="631" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="646" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="649" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="652" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="655" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="658" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="661" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="664" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="655" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="667" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="667" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="658" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="670" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="658" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="673" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16352,7 +17617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16818,6 +18083,9 @@
       <c r="I6" t="s">
         <v>499</v>
       </c>
+      <c r="J6" t="s">
+        <v>713</v>
+      </c>
       <c r="K6" t="s">
         <v>331</v>
       </c>
@@ -17334,7 +18602,7 @@
         <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -17354,7 +18622,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>279</v>
@@ -17374,7 +18642,7 @@
         <v>379</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="H21" t="s">
         <v>280</v>
@@ -17394,7 +18662,7 @@
         <v>395</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>679</v>
       </c>
       <c r="H22" t="s">
         <v>281</v>
@@ -17414,7 +18682,7 @@
         <v>396</v>
       </c>
       <c r="F23" t="s">
-        <v>679</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>282</v>
@@ -17434,7 +18702,7 @@
         <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
         <v>273</v>
@@ -17454,7 +18722,7 @@
         <v>380</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>262</v>
@@ -17474,7 +18742,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -17494,7 +18762,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>496</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
         <v>265</v>
@@ -17514,7 +18782,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
         <v>249</v>
@@ -17531,7 +18799,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>620</v>
       </c>
       <c r="H29" t="s">
         <v>266</v>
@@ -17548,7 +18816,7 @@
         <v>397</v>
       </c>
       <c r="F30" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H30" t="s">
         <v>267</v>
@@ -17565,7 +18833,7 @@
         <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>621</v>
+        <v>399</v>
       </c>
       <c r="H31" t="s">
         <v>201</v>
@@ -17576,7 +18844,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>399</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>258</v>
@@ -17587,7 +18855,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>268</v>
@@ -17598,7 +18866,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>656</v>
@@ -17609,7 +18877,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>243</v>
@@ -17620,7 +18888,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>313</v>
@@ -17631,7 +18899,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>290</v>
@@ -17642,7 +18910,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>244</v>
@@ -17653,7 +18921,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
         <v>291</v>
@@ -17663,9 +18931,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
       <c r="H40" t="s">
         <v>250</v>
       </c>
@@ -18139,186 +19404,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>429</v>
+        <v>714</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>189</v>
+        <v>715</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>661</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>709</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>134</v>
+        <v>709</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>135</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>432</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>695</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>150</v>
+        <v>695</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>155</v>
       </c>
     </row>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13254" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13819" uniqueCount="716">
   <si>
     <t>description</t>
   </si>
@@ -2524,7 +2524,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="398" x14ac:knownFonts="1">
+  <fonts count="414" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5047,8 +5047,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="674">
+  <fills count="701">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8864,8 +8965,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="695">
+  <borders count="727">
     <border>
       <left/>
       <right/>
@@ -15891,6 +16145,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15898,7 +16478,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="443">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17157,52 +17737,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="646" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="649" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="649" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="652" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="652" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="655" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="655" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="658" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="658" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="661" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="661" fontId="388" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="664" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="664" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="655" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="655" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="667" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="667" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="667" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="667" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="658" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="658" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="670" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="670" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="658" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="658" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="673" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="673" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="676" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="679" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="682" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="685" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="688" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="691" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="682" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="694" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="694" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="685" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="697" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="685" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="700" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/start-01.xlsx
+++ b/artifact/script/start-01.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13819" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14949" uniqueCount="716">
   <si>
     <t>description</t>
   </si>
@@ -2524,7 +2524,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="414" x14ac:knownFonts="1">
+  <fonts count="446" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5148,8 +5148,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="701">
+  <fills count="755">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9118,8 +9320,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="727">
+  <borders count="791">
     <border>
       <left/>
       <right/>
@@ -16471,6 +16979,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16478,7 +17638,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="475">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17785,52 +18945,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="673" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="676" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="676" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="679" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="679" fontId="400" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="682" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="682" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="685" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="685" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="688" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="688" fontId="404" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="691" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="691" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="682" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="682" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="694" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="694" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="694" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="694" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="685" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="685" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="697" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="697" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="685" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="685" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="700" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="700" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="703" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="706" fontId="416" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="709" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="712" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="715" fontId="420" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="718" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="709" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="721" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="721" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="712" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="724" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="712" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="727" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="730" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="733" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="736" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="739" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="742" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="745" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="736" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="748" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="748" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="739" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="751" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="739" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="754" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
